--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>vCode</t>
+  </si>
   <si>
     <t>Item No</t>
   </si>
@@ -50,94 +56,13 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>SIDE BLOCK</t>
-  </si>
-  <si>
-    <t>149WB474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14K WG Dia Bangle  </t>
-  </si>
-  <si>
-    <t>$1661</t>
-  </si>
-  <si>
-    <t>BG001405</t>
-  </si>
-  <si>
-    <t>149WE1024</t>
-  </si>
-  <si>
-    <t>14K WG 1.5,2mm Dia Earring 50mm Outer</t>
-  </si>
-  <si>
-    <t>$1876</t>
-  </si>
-  <si>
-    <t>ER004955</t>
-  </si>
-  <si>
-    <t>187WN9030</t>
-  </si>
-  <si>
-    <t>18K WG Dia &amp; Rose Cut Single Line Necklace - 34"</t>
-  </si>
-  <si>
-    <t>$9618</t>
-  </si>
-  <si>
-    <t>187WN9032</t>
-  </si>
-  <si>
-    <t>18K WG Octa &amp; Emerald Alternate Necklace - 24"</t>
-  </si>
-  <si>
-    <t>$19816</t>
-  </si>
-  <si>
-    <t>187WN9033</t>
-  </si>
-  <si>
-    <t>18K WG Dia &amp; Emerald Necklace - 34"</t>
-  </si>
-  <si>
-    <t>$34719</t>
-  </si>
-  <si>
-    <t>18WB475</t>
-  </si>
-  <si>
-    <t>18k WG Dia &amp; 6x4 TZ bangle</t>
-  </si>
-  <si>
-    <t>$4516</t>
-  </si>
-  <si>
-    <t>SG102</t>
-  </si>
-  <si>
-    <t>18WB476</t>
-  </si>
-  <si>
-    <t>18k WG Bagg Dia Bangle</t>
-  </si>
-  <si>
-    <t>$4815</t>
-  </si>
-  <si>
-    <t>SG130WG</t>
-  </si>
-  <si>
-    <t>18WB477</t>
-  </si>
-  <si>
-    <t>18k WG Dia &amp; 6x4 TZ  Bangle</t>
-  </si>
-  <si>
-    <t>$2385</t>
-  </si>
-  <si>
-    <t>SG125</t>
+    <t>Style Code</t>
+  </si>
+  <si>
+    <t>CM-SDC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dia Bead - ROUND shape Polki double sided - 8mm </t>
   </si>
 </sst>
 </file>
@@ -182,12 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -196,6 +124,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,20 +451,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="true" style="0"/>
+    <col min="1" max="1" width="7" customWidth="true" style="0"/>
     <col min="2" max="2" width="9" customWidth="true" style="0"/>
-    <col min="3" max="3" width="45" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" customWidth="true" style="0"/>
-    <col min="12" max="12" width="11" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="2"/>
+    <col min="5" max="5" width="45" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.5" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -541,279 +504,49 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:14" customHeight="1" ht="82.5">
+      <c r="A2">
+        <v>161</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2"/>
-      <c r="E2">
-        <v>7.67</v>
-      </c>
-      <c r="F2">
-        <v>0.65</v>
-      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2"/>
       <c r="G2">
+        <v>1.3</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>7.54</v>
-      </c>
-      <c r="I2">
-        <v>149</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>14</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3">
-        <v>7.02</v>
-      </c>
-      <c r="F3">
-        <v>0.76</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>6.87</v>
-      </c>
-      <c r="I3">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
+      <c r="L2">
+        <v>47</v>
+      </c>
+      <c r="M2">
         <v>21</v>
       </c>
-      <c r="D4"/>
-      <c r="E4">
-        <v>19.306</v>
-      </c>
-      <c r="F4">
-        <v>5.03</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>18.3</v>
-      </c>
-      <c r="I4">
-        <v>371</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>5267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5">
-        <v>47.15</v>
-      </c>
-      <c r="F5">
-        <v>8.27</v>
-      </c>
-      <c r="G5">
-        <v>4.26</v>
-      </c>
-      <c r="H5">
-        <v>44.644</v>
-      </c>
-      <c r="I5">
-        <v>819</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>5269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6">
-        <v>49.536</v>
-      </c>
-      <c r="F6">
-        <v>7.4</v>
-      </c>
-      <c r="G6">
-        <v>39.38</v>
-      </c>
-      <c r="H6">
-        <v>40.18</v>
-      </c>
-      <c r="I6">
-        <v>432</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>5270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7">
-        <v>17.79</v>
-      </c>
-      <c r="F7">
-        <v>0.25</v>
-      </c>
-      <c r="G7">
-        <v>5.91</v>
-      </c>
-      <c r="H7">
-        <v>16.558</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8">
-        <v>14.45</v>
-      </c>
-      <c r="F8">
-        <v>1.75</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>14.1</v>
-      </c>
-      <c r="I8">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>0.75</v>
-      </c>
-      <c r="G9">
-        <v>0.67</v>
-      </c>
-      <c r="H9">
-        <v>7.716</v>
-      </c>
-      <c r="I9">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
+      <c r="N2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -829,5 +562,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Vendor</t>
   </si>
@@ -59,10 +59,13 @@
     <t>Style Code</t>
   </si>
   <si>
-    <t>CM-SDC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dia Bead - ROUND shape Polki double sided - 8mm </t>
+    <t>RG006719</t>
+  </si>
+  <si>
+    <t>14YR785.7</t>
+  </si>
+  <si>
+    <t>14K Rings- Dia Yellow XOXO ring</t>
   </si>
 </sst>
 </file>
@@ -513,40 +516,44 @@
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="82.5">
       <c r="A2">
-        <v>161</v>
-      </c>
-      <c r="B2"/>
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2"/>
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
       <c r="G2">
-        <v>1.3</v>
+        <v>1.685</v>
       </c>
       <c r="H2">
-        <v>0.25</v>
+        <v>0.118</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>1.661</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
       <c r="L2">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="M2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Vendor</t>
   </si>
@@ -59,13 +59,43 @@
     <t>Style Code</t>
   </si>
   <si>
-    <t>RG006719</t>
-  </si>
-  <si>
-    <t>14YR785.7</t>
-  </si>
-  <si>
-    <t>14K Rings- Dia Yellow XOXO ring</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NL39871W4D2</t>
+  </si>
+  <si>
+    <t>14WN1699</t>
+  </si>
+  <si>
+    <t>14K WG BAGUETTE DIA TASSLE NECKLACE 16"+2" CHAIN</t>
+  </si>
+  <si>
+    <t>OCKSFORHVX530/4</t>
+  </si>
+  <si>
+    <t>14YC361</t>
+  </si>
+  <si>
+    <t>14K YG Swivel Lobster fancy clasp 17.5x7.7mm</t>
+  </si>
+  <si>
+    <t>Italian clasp</t>
+  </si>
+  <si>
+    <t>V101</t>
+  </si>
+  <si>
+    <t>SAM1</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Heya</t>
   </si>
 </sst>
 </file>
@@ -112,13 +142,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +178,66 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -454,7 +544,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -468,9 +558,10 @@
     <col min="4" max="4" width="15" customWidth="true" style="2"/>
     <col min="5" max="5" width="45" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.5" customWidth="true" style="0"/>
+    <col min="15" max="15" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,47 +604,143 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" customHeight="1" ht="82.5">
+    <row r="2" spans="1:16" customHeight="1" ht="82.5">
       <c r="A2">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2"/>
       <c r="G2">
-        <v>1.685</v>
+        <v>6.006</v>
       </c>
       <c r="H2">
-        <v>0.118</v>
+        <v>0.78</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.661</v>
+        <v>5.85</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L2">
-        <v>348</v>
+        <v>3290</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>586</v>
+        <v>589</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:16" customHeight="1" ht="82.5">
+      <c r="A3">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.02</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>51</v>
+      </c>
+      <c r="N3">
+        <v>5810</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:16" customHeight="1" ht="82.5">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>581</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Vendor</t>
   </si>
@@ -65,37 +65,13 @@
     <t>MU</t>
   </si>
   <si>
-    <t>NL39871W4D2</t>
-  </si>
-  <si>
-    <t>14WN1699</t>
-  </si>
-  <si>
-    <t>14K WG BAGUETTE DIA TASSLE NECKLACE 16"+2" CHAIN</t>
-  </si>
-  <si>
-    <t>OCKSFORHVX530/4</t>
-  </si>
-  <si>
-    <t>14YC361</t>
-  </si>
-  <si>
-    <t>14K YG Swivel Lobster fancy clasp 17.5x7.7mm</t>
-  </si>
-  <si>
-    <t>Italian clasp</t>
-  </si>
-  <si>
-    <t>V101</t>
+    <t>Cost Price</t>
   </si>
   <si>
     <t>SAM1</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Heya</t>
+    <t>jas</t>
   </si>
 </sst>
 </file>
@@ -178,66 +154,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -544,7 +460,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -561,7 +477,7 @@
     <col min="15" max="15" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,13 +526,16 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" customHeight="1" ht="82.5">
+    <row r="2" spans="1:17" customHeight="1" ht="82.5">
       <c r="A2">
-        <v>263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -625,122 +544,39 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2">
-        <v>6.006</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>5.85</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>3290</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="O2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16" customHeight="1" ht="82.5">
-      <c r="A3">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1.02</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>51</v>
-      </c>
-      <c r="N3">
-        <v>5810</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:16" customHeight="1" ht="82.5">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>581</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4">
-        <v>14</v>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Vendor</t>
   </si>
@@ -59,19 +59,25 @@
     <t>Style Code</t>
   </si>
   <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Enter 1</t>
+  </si>
+  <si>
+    <t>Cost Price</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Cost Price</t>
-  </si>
-  <si>
-    <t>SAM1</t>
-  </si>
-  <si>
-    <t>jas</t>
+    <t>T09474Q</t>
+  </si>
+  <si>
+    <t>14YB542</t>
+  </si>
+  <si>
+    <t>14k YG Cuban Link Dia Bracelet 7"  - 4.5mm thickness</t>
   </si>
 </sst>
 </file>
@@ -99,7 +105,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,19 +115,49 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border/>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -460,10 +496,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,112 +507,120 @@
     <col min="1" max="1" width="7" customWidth="true" style="0"/>
     <col min="2" max="2" width="9" customWidth="true" style="0"/>
     <col min="3" max="3" width="11" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" customWidth="true" style="2"/>
-    <col min="5" max="5" width="45" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.5" customWidth="true" style="0"/>
-    <col min="15" max="15" width="25" customWidth="true" style="0"/>
+    <col min="20" max="20" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" customHeight="1" ht="82.5">
-      <c r="A2">
+    <row r="2" spans="1:20" customHeight="1" ht="82.5">
+      <c r="A2" s="4">
+        <v>248</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>8.939</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8.643</v>
+      </c>
+      <c r="K2" s="4">
+        <v>382</v>
+      </c>
+      <c r="L2" s="4">
+        <v>3244</v>
+      </c>
+      <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
+      <c r="N2" s="4">
+        <v>584</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>581</v>
-      </c>
-      <c r="O2"/>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>3.18</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Vendor</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Size</t>
   </si>
   <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
     <t>gross Wt</t>
   </si>
   <si>
@@ -56,21 +59,33 @@
     <t>Qty</t>
   </si>
   <si>
+    <t>Brand</t>
+  </si>
+  <si>
     <t>Style Code</t>
   </si>
   <si>
     <t>MU</t>
   </si>
   <si>
+    <t>Cost Price</t>
+  </si>
+  <si>
     <t>Enter 1</t>
   </si>
   <si>
-    <t>Cost Price</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
+    <t>Vendor PO#</t>
+  </si>
+  <si>
+    <t>Gold Price</t>
+  </si>
+  <si>
+    <t>Silver Price</t>
+  </si>
+  <si>
     <t>T09474Q</t>
   </si>
   <si>
@@ -78,6 +93,12 @@
   </si>
   <si>
     <t>14k YG Cuban Link Dia Bracelet 7"  - 4.5mm thickness</t>
+  </si>
+  <si>
+    <t>AxCXB</t>
+  </si>
+  <si>
+    <t>14k</t>
   </si>
 </sst>
 </file>
@@ -496,7 +517,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -513,7 +534,7 @@
     <col min="20" max="20" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,68 +580,94 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" customHeight="1" ht="82.5">
+    <row r="2" spans="1:23" customHeight="1" ht="82.5">
       <c r="A2" s="4">
         <v>248</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4">
         <v>8.939</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>1.48</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.643</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>382</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>3244</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="4">
         <v>584</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="4">
+        <v>3.18</v>
+      </c>
       <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
         <v>1</v>
       </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>3.18</v>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2341</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/export.xlsx
+++ b/src/scripts/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Vendor</t>
   </si>
@@ -86,19 +86,13 @@
     <t>Silver Price</t>
   </si>
   <si>
-    <t>T09474Q</t>
-  </si>
-  <si>
-    <t>14YB542</t>
-  </si>
-  <si>
-    <t>14k YG Cuban Link Dia Bracelet 7"  - 4.5mm thickness</t>
-  </si>
-  <si>
-    <t>AxCXB</t>
-  </si>
-  <si>
-    <t>14k</t>
+    <t>R-152.6</t>
+  </si>
+  <si>
+    <t>PEP-14YR1283.6</t>
+  </si>
+  <si>
+    <t>14K YG Dia Blue Sapphire Ring -6</t>
   </si>
 </sst>
 </file>
@@ -607,7 +601,7 @@
     </row>
     <row r="2" spans="1:23" customHeight="1" ht="82.5">
       <c r="A2" s="4">
-        <v>248</v>
+        <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>23</v>
@@ -620,39 +614,33 @@
         <v>25</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
-        <v>8.939</v>
+        <v>3.216</v>
       </c>
       <c r="I2" s="4">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
+        <v>0.705</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3.075</v>
+      </c>
+      <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
-        <v>8.643</v>
-      </c>
-      <c r="L2" s="4">
-        <v>382</v>
-      </c>
       <c r="M2" s="4">
-        <v>3244</v>
+        <v>535</v>
       </c>
       <c r="N2" s="4">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O2" s="4"/>
       <c r="P2" s="4">
-        <v>584</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>3.18</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <v>0</v>
       </c>
@@ -660,15 +648,9 @@
         <v>1</v>
       </c>
       <c r="T2" s="4"/>
-      <c r="U2" s="4">
-        <v>1234567</v>
-      </c>
-      <c r="V2" s="4">
-        <v>1234</v>
-      </c>
-      <c r="W2" s="4">
-        <v>2341</v>
-      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
